--- a/src/deep_learning/bert_tests/lstm_side_information_tests/LSTM Side Information Tests - Reading - Complete.xlsx
+++ b/src/deep_learning/bert_tests/lstm_side_information_tests/LSTM Side Information Tests - Reading - Complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\Documents\University\Project\src\deep_learning\bert_tests\lstm_side_information_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421AE4C3-5464-42CF-AC11-4515B5F3D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E4CD9A-762C-4871-A22A-06B7A9A43EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8490" windowWidth="29040" windowHeight="15840" xr2:uid="{915E7709-9AE7-425D-800E-462E71890215}"/>
+    <workbookView xWindow="73905" yWindow="14250" windowWidth="7500" windowHeight="6000" xr2:uid="{915E7709-9AE7-425D-800E-462E71890215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
